--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aberyo/Documents/Github/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15604107-C961-6446-9247-FD9C7F1273AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9403F681-A93B-9442-BD1E-1FFBF61D9154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="820" windowWidth="28300" windowHeight="17440" xr2:uid="{8ECA856A-8008-6A41-9342-238384650CEF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>SSIM</t>
     <phoneticPr fontId="1"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>Setpoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -90,6 +94,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="184" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -144,20 +152,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,30 +494,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B6B067-F49A-BD42-8FCE-AAED699AFA41}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -518,8 +541,7 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
@@ -528,91 +550,103 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>9.9371449234334506</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>89308744</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>157.672254865946</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>304309202</v>
       </c>
-      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
         <v>7025996</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
         <v>132867472</v>
       </c>
-      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
         <v>2741935</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
         <v>90537416</v>
       </c>
-      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
-        <v>2.1366525295522898</v>
-      </c>
-      <c r="C6" s="1">
-        <v>110573331</v>
-      </c>
-      <c r="D6" s="1">
-        <v>32.8180717778828</v>
-      </c>
-      <c r="E6" s="1">
-        <v>350614330</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="B6" s="5">
+        <v>1.6807257454181299</v>
+      </c>
+      <c r="C6" s="7">
+        <v>90046975</v>
+      </c>
+      <c r="D6" s="5">
+        <v>68.723496809469495</v>
+      </c>
+      <c r="E6" s="7">
+        <v>218520516</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>183.75499684872801</v>
-      </c>
-      <c r="C7" s="1">
-        <v>181093415</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1272.6234992325401</v>
-      </c>
-      <c r="E7" s="1">
-        <v>414337060</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="B7" s="5">
+        <v>3.7171650786932098</v>
+      </c>
+      <c r="C7" s="8">
+        <v>155858671</v>
+      </c>
+      <c r="D7" s="5">
+        <v>517.16772839741202</v>
+      </c>
+      <c r="E7" s="7">
+        <v>402974520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>8439430</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>91691245</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
